--- a/biology/Botanique/Parc_des_berges_du_Rhône/Parc_des_berges_du_Rhône.xlsx
+++ b/biology/Botanique/Parc_des_berges_du_Rhône/Parc_des_berges_du_Rhône.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_des_berges_du_Rh%C3%B4ne</t>
+          <t>Parc_des_berges_du_Rhône</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des berges du Rhône est un parc lyonnais de 5,5 ha situé dans le quartier Gerland du 7e arrondissement de Lyon. Il crée une continuité entre le parc Henry-Chabert, la Halle Tony Garnier et les quais du Rhône à travers une promenade piétonnière dont le dessin suit les courbes de la pente, séparant l’espace bas de l’espace haut, et une voie cyclable transversale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_des_berges_du_Rh%C3%B4ne</t>
+          <t>Parc_des_berges_du_Rhône</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc offre une vaste prairie de jeux orientée vers le sud, bordée de 3 gradins enherbés. Cet espace est régulièrement ouvert à des événements festifs et musicaux. On peut aussi trouver une terrasse-belvédère et un jardin au nord, dans une ambiance méditerranéenne, avec notamment la présence de figuiers. Le long des berges, une peupleraie a été plantée (peupliers blancs ou noirs, trembles, grisards). Son traitement paysager respecte l’aspect naturel de la ripisylve. La mise en lumière du parc propose un éclairage fonctionnel et d’ambiance, notamment à partir d’un jalonnement de lanternes redessinant certaines allées la nuit.
 L'opération a été effectuée dans le cadre de la Zone d'aménagement concerté du Parc de Gerland. Le maitre d'ouvrage était le Grand Lyon et la maîtrise d'œuvre a été assurée par Tim Boursier et Anne Laure Giroud, assistée de l'éclairagiste LEA. Les travaux pour sa réalisation ont duré d'octobre 2008 à avril 2010.
